--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1702,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1795,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2383,10 +2395,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2430,28 +2442,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2476,28 +2488,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2655,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2748,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3019,10 +3031,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3066,28 +3078,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3112,28 +3124,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3279,10 +3291,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3326,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3372,28 +3384,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3568,10 +3580,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3615,28 +3627,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3661,28 +3673,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3828,10 +3840,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3875,28 +3887,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3921,28 +3933,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4030,10 +4042,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4077,28 +4089,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4123,28 +4135,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4377,10 +4389,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4424,28 +4436,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4470,28 +4482,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4897,10 +4909,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4944,28 +4956,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4990,28 +5002,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5099,10 +5111,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5146,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5192,28 +5204,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5272,10 +5284,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5319,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5365,28 +5377,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5445,10 +5457,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5492,28 +5504,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5538,28 +5550,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5659,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5706,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5752,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5849,10 +5861,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5896,28 +5908,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5942,28 +5954,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6051,10 +6063,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6098,28 +6110,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6144,28 +6156,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6282,10 +6294,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6329,28 +6341,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6375,28 +6387,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6484,10 +6496,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6531,28 +6543,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6577,28 +6589,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6686,10 +6698,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6733,28 +6745,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6779,28 +6791,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6958,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6993,28 +7005,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7051,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7131,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7166,28 +7178,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7224,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7292,10 +7304,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7339,28 +7351,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7385,28 +7397,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7535,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
